--- a/Check.xlsx
+++ b/Check.xlsx
@@ -436,7 +436,7 @@
     <t>Текст и заголовки хорошо различимы отображаются корректно, кнопка и фоновая страница не помещаются в пределы отображения экрана</t>
   </si>
   <si>
-    <t>15. Тестирование прерывания</t>
+    <t>15. Прерывание работы приложения</t>
   </si>
   <si>
     <t>Сворачивание приложения во время работы приложения</t>
